--- a/examples/MPCX/src/protocols.xlsx
+++ b/examples/MPCX/src/protocols.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EMTF_root_config" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10127" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10175" uniqueCount="1118">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -3570,7 +3570,7 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -29546,7 +29546,8 @@
       <c r="C25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="14" t="b">
+      <c r="D25" s="14" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -29715,8 +29716,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30390,6 +30391,318 @@
       </c>
       <c r="H27" s="1" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
